--- a/BOARD GAME GENERATOR-CT-01.01.xlsx
+++ b/BOARD GAME GENERATOR-CT-01.01.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>CAMPO</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Equipe:</t>
-  </si>
-  <si>
-    <t>SISMAT</t>
   </si>
   <si>
     <t xml:space="preserve">Edênio Freire Feistosa </t>
@@ -824,6 +821,10 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,40 +843,31 @@
     <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,22 +885,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -926,37 +909,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b/>
@@ -1431,8 +1410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1551,11 +1530,11 @@
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="23"/>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="24"/>
       <c r="I13" s="14"/>
       <c r="J13" s="18"/>
@@ -1564,9 +1543,9 @@
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="23"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="24"/>
       <c r="I14" s="14"/>
       <c r="J14" s="18"/>
@@ -1586,11 +1565,11 @@
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="23"/>
-      <c r="E16" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
+      <c r="E16" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
       <c r="H16" s="24"/>
       <c r="I16" s="14"/>
       <c r="J16" s="18"/>
@@ -1599,9 +1578,9 @@
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
       <c r="D17" s="23"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="24"/>
       <c r="I17" s="14"/>
       <c r="J17" s="18"/>
@@ -1612,7 +1591,7 @@
       <c r="D18" s="23"/>
       <c r="E18" s="28"/>
       <c r="F18" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="24"/>
@@ -1649,7 +1628,7 @@
       <c r="D21" s="23"/>
       <c r="E21" s="28"/>
       <c r="F21" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="24"/>
@@ -1853,7 +1832,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11:C12"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1873,19 +1852,19 @@
       <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="79" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="60" t="s">
+      <c r="B1" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="81" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="47"/>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="83" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="1"/>
@@ -2092,13 +2071,13 @@
       <c r="A2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="65"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="47"/>
-      <c r="H2" s="67"/>
+      <c r="H2" s="83"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -2300,18 +2279,18 @@
       <c r="GY2" s="1"/>
     </row>
     <row r="3" spans="1:207" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="65"/>
+      <c r="B3" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="81"/>
       <c r="G3" s="47"/>
-      <c r="H3" s="67"/>
+      <c r="H3" s="83"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -2513,14 +2492,14 @@
       <c r="GY3" s="1"/>
     </row>
     <row r="4" spans="1:207" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="66"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="82"/>
       <c r="G4" s="47"/>
-      <c r="H4" s="68"/>
+      <c r="H4" s="84"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -3339,27 +3318,27 @@
       <c r="GQ7"/>
     </row>
     <row r="8" spans="1:207" s="35" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="74">
+      <c r="A8" s="85">
         <v>1</v>
       </c>
-      <c r="B8" s="76" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="76" t="s">
-        <v>17</v>
+      <c r="B8" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="86" t="s">
         <v>16</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="85"/>
-      <c r="H8" s="58" t="s">
-        <v>17</v>
       </c>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
@@ -3554,18 +3533,18 @@
       <c r="GQ8" s="36"/>
     </row>
     <row r="9" spans="1:207" s="35" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="59"/>
+        <v>19</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="36"/>
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
@@ -3960,27 +3939,27 @@
       <c r="GQ10"/>
     </row>
     <row r="11" spans="1:207" s="35" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78">
+      <c r="A11" s="59">
         <v>2</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="76" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="85"/>
-      <c r="H11" s="55" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="51"/>
+      <c r="H11" s="57" t="s">
+        <v>25</v>
       </c>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
@@ -4175,18 +4154,18 @@
       <c r="GQ11" s="36"/>
     </row>
     <row r="12" spans="1:207" s="35" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="57"/>
+        <v>24</v>
+      </c>
+      <c r="F12" s="63"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="64"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
@@ -4386,7 +4365,7 @@
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
       <c r="F13" s="50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" s="50"/>
       <c r="H13" s="50"/>
@@ -4583,27 +4562,27 @@
       <c r="GQ13"/>
     </row>
     <row r="14" spans="1:207" s="35" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="78">
+      <c r="A14" s="59">
         <v>3</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="51"/>
+      <c r="H14" s="57" t="s">
         <v>27</v>
-      </c>
-      <c r="C14" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="85"/>
-      <c r="H14" s="55" t="s">
-        <v>28</v>
       </c>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
@@ -4798,18 +4777,18 @@
       <c r="GQ14" s="36"/>
     </row>
     <row r="15" spans="1:207" s="35" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="57"/>
+        <v>24</v>
+      </c>
+      <c r="F15" s="63"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="64"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
@@ -5201,27 +5180,27 @@
       <c r="GQ16"/>
     </row>
     <row r="17" spans="1:199" s="35" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="78">
+      <c r="A17" s="59">
         <v>4</v>
       </c>
-      <c r="B17" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="76" t="s">
-        <v>24</v>
+      <c r="B17" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="61" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="51"/>
+      <c r="H17" s="57" t="s">
         <v>36</v>
-      </c>
-      <c r="G17" s="85"/>
-      <c r="H17" s="55" t="s">
-        <v>37</v>
       </c>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
@@ -5416,18 +5395,18 @@
       <c r="GQ17" s="36"/>
     </row>
     <row r="18" spans="1:199" s="35" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="75"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="58"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
@@ -5621,18 +5600,18 @@
       <c r="GQ18" s="36"/>
     </row>
     <row r="19" spans="1:199" s="35" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="86"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="57"/>
+        <v>30</v>
+      </c>
+      <c r="F19" s="63"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="64"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
@@ -6024,27 +6003,27 @@
       <c r="GQ20"/>
     </row>
     <row r="21" spans="1:199" s="35" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="78">
+      <c r="A21" s="59">
         <v>5</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>39</v>
-      </c>
       <c r="E21" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="51"/>
+      <c r="H21" s="57" t="s">
         <v>16</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="85"/>
-      <c r="H21" s="55" t="s">
-        <v>17</v>
       </c>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
@@ -6239,18 +6218,18 @@
       <c r="GQ21" s="36"/>
     </row>
     <row r="22" spans="1:199" s="35" customFormat="1" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="56"/>
+        <v>39</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="58"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
@@ -6642,27 +6621,27 @@
       <c r="GQ23"/>
     </row>
     <row r="24" spans="1:199" s="35" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="78">
+      <c r="A24" s="59">
         <v>6</v>
       </c>
-      <c r="B24" s="76" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="76" t="s">
-        <v>43</v>
+      <c r="B24" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>42</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="51"/>
+      <c r="H24" s="57" t="s">
         <v>16</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="G24" s="85"/>
-      <c r="H24" s="55" t="s">
-        <v>17</v>
       </c>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
@@ -6857,18 +6836,18 @@
       <c r="GQ24" s="36"/>
     </row>
     <row r="25" spans="1:199" s="35" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="75"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
       <c r="D25" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="58"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
       <c r="K25" s="36"/>
@@ -7063,27 +7042,27 @@
     </row>
     <row r="26" spans="1:199" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:199" s="35" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="78">
+      <c r="A27" s="59">
         <v>7</v>
       </c>
-      <c r="B27" s="76" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="76" t="s">
-        <v>24</v>
+      <c r="B27" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>23</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E27" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="51"/>
+      <c r="H27" s="57" t="s">
         <v>16</v>
-      </c>
-      <c r="F27" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="85"/>
-      <c r="H27" s="55" t="s">
-        <v>17</v>
       </c>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
@@ -7278,18 +7257,18 @@
       <c r="GQ27" s="36"/>
     </row>
     <row r="28" spans="1:199" s="35" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="75"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="58"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
       <c r="K28" s="36"/>
@@ -7484,27 +7463,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="B3:D4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="H1:H4"/>
     <mergeCell ref="A11:A12"/>
@@ -7517,12 +7475,33 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="H11:H12"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="H21:H22"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:H28"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
@@ -7531,7 +7510,7 @@
     <cfRule type="cellIs" priority="17" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="18" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7539,7 +7518,7 @@
     <cfRule type="cellIs" priority="15" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="16" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7547,7 +7526,7 @@
     <cfRule type="cellIs" priority="11" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7555,7 +7534,7 @@
     <cfRule type="cellIs" priority="9" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="10" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7563,7 +7542,7 @@
     <cfRule type="cellIs" priority="23" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="24" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7571,7 +7550,7 @@
     <cfRule type="cellIs" priority="13" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="14" stopIfTrue="1">
       <formula>#REF!="S"</formula>
     </cfRule>
   </conditionalFormatting>
